--- a/src/main/resources/testFile.xlsx
+++ b/src/main/resources/testFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Date\Page</t>
   </si>
@@ -59,13 +59,13 @@
     <t>Study reports page</t>
   </si>
   <si>
-    <t>2019-02-21</t>
+    <t>21</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>21</t>
+    <t>2019-03-26</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,15 +440,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43551</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
